--- a/biology/Zoologie/Grive_de_Péron/Grive_de_Péron.xlsx
+++ b/biology/Zoologie/Grive_de_Péron/Grive_de_Péron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grive_de_P%C3%A9ron</t>
+          <t>Grive_de_Péron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geokichla peronii
 La Grive de Péron (Geokichla peronii, anciennement Zoothera peronii) est une espèce de passereaux de la famille Turdidae. Elle fut nommée en l'honneur de François Péron naturaliste  et explorateur français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grive_de_P%C3%A9ron</t>
+          <t>Grive_de_Péron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple Timor et le sud des Moluques.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grive_de_P%C3%A9ron</t>
+          <t>Grive_de_Péron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grive de Péron peuple les forêts, notamment les forêts de mousson. Les habitats préférentiels comportent des canopées fermées bien que cette espèce fréquente également les parcelles boisées dégradées. Elle se rencontre jusqu'à 1 200 m d'altitude.
 </t>
